--- a/templates/Add_CU.xlsx
+++ b/templates/Add_CU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EVM Gov\EVM-Backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F3C80-406A-4899-81F3-5F697BC197C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99559A-D7D8-4175-A987-2ED40704AEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6BCA05A7-2C7C-41F2-B3DF-31BAD72F3277}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CU No.</t>
   </si>
@@ -42,7 +42,13 @@
     <t>CU Box No.</t>
   </si>
   <si>
-    <t>Month &amp; Year of Manufacture</t>
+    <t>DMM No.</t>
+  </si>
+  <si>
+    <t>DMM Month &amp; Year of Manufacture</t>
+  </si>
+  <si>
+    <t>CU Month &amp; Year of Manufacture</t>
   </si>
 </sst>
 </file>
@@ -410,21 +416,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BC161C-4EC0-4D9E-A444-43D289112932}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +439,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
